--- a/Reliability_Row_data/static/src/modelfiles/OBIDeviceResult.xlsx
+++ b/Reliability_Row_data/static/src/modelfiles/OBIDeviceResult.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="110" windowWidth="19390" windowHeight="9470"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="19392" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="OBI device" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OBI device'!$A$2:$AH$38</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -316,10 +319,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Cabel&amp;Adapter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Dock</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1103,6 +1102,10 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Cable&amp;Adapter</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1110,23 +1113,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="mmm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmm/yy;@"/>
+    <numFmt numFmtId="179" formatCode="mmm/yy;@"/>
   </numFmts>
   <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1134,7 +1137,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1159,7 +1162,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1210,7 +1213,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1224,7 +1227,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1232,17 +1235,20 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1256,6 +1262,7 @@
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1263,18 +1270,21 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1282,12 +1292,14 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1295,6 +1307,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1302,6 +1315,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1315,6 +1329,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1326,6 +1341,7 @@
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1333,6 +1349,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1340,6 +1357,7 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1347,6 +1365,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1359,6 +1378,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1366,6 +1386,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1387,7 +1408,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1421,7 +1442,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1429,7 +1450,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2031,17 +2052,17 @@
   </borders>
   <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2153,7 +2174,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2196,19 +2217,19 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2320,9 +2341,9 @@
     <xf numFmtId="0" fontId="17" fillId="25" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
@@ -2334,11 +2355,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="47" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="42" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2392,28 +2413,28 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="26" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="26" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="11" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="11" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="21" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="21" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="16" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="16" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="31" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="31" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="2" borderId="11" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2459,20 +2480,20 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="26" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="31" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="31" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="11" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="11" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="11" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="16" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="16" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="16" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,7 +2514,7 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="26" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="2" borderId="26" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="2" borderId="26" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="26" borderId="11" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2502,13 +2523,13 @@
     <xf numFmtId="49" fontId="39" fillId="26" borderId="1" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="31" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="26" borderId="31" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="26" borderId="21" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="26" borderId="21" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="26" borderId="21" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2540,26 +2561,11 @@
     <cellStyle name="Normal 5 3" xfId="120"/>
     <cellStyle name="Normal_Sheet1" xfId="17"/>
     <cellStyle name="Normal_Sheet1 2" xfId="72"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 10" xfId="75"/>
-    <cellStyle name="一般 11" xfId="8"/>
-    <cellStyle name="一般 2" xfId="53"/>
-    <cellStyle name="一般 2 14" xfId="67"/>
-    <cellStyle name="一般 2 2" xfId="63"/>
-    <cellStyle name="一般 2 3" xfId="70"/>
-    <cellStyle name="一般 3" xfId="61"/>
-    <cellStyle name="一般 32" xfId="1"/>
-    <cellStyle name="一般 4" xfId="60"/>
-    <cellStyle name="一般 5" xfId="9"/>
-    <cellStyle name="一般 6" xfId="62"/>
-    <cellStyle name="一般 65" xfId="3"/>
-    <cellStyle name="一般 65 2" xfId="89"/>
-    <cellStyle name="一般 66" xfId="5"/>
-    <cellStyle name="一般 7" xfId="64"/>
-    <cellStyle name="一般 8" xfId="68"/>
-    <cellStyle name="一般 9" xfId="69"/>
-    <cellStyle name="千分位 3" xfId="2"/>
-    <cellStyle name="好 2" xfId="27"/>
+    <cellStyle name="标题" xfId="14"/>
+    <cellStyle name="标题 1" xfId="40"/>
+    <cellStyle name="标题 2" xfId="41"/>
+    <cellStyle name="标题 3" xfId="42"/>
+    <cellStyle name="标题 4" xfId="43"/>
     <cellStyle name="差" xfId="45"/>
     <cellStyle name="常规 10" xfId="116"/>
     <cellStyle name="常规 13" xfId="115"/>
@@ -2580,12 +2586,7 @@
     <cellStyle name="常规 4" xfId="50"/>
     <cellStyle name="常规 4 2" xfId="51"/>
     <cellStyle name="常规_F32M sourcing plan D 080404 2" xfId="4"/>
-    <cellStyle name="标题" xfId="14"/>
-    <cellStyle name="标题 1" xfId="40"/>
-    <cellStyle name="标题 2" xfId="41"/>
-    <cellStyle name="标题 3" xfId="42"/>
-    <cellStyle name="标题 4" xfId="43"/>
-    <cellStyle name="检查单元格" xfId="39"/>
+    <cellStyle name="好 2" xfId="27"/>
     <cellStyle name="汇总" xfId="52"/>
     <cellStyle name="汇总 2" xfId="78"/>
     <cellStyle name="汇总 2 2" xfId="99"/>
@@ -2594,6 +2595,60 @@
     <cellStyle name="汇总 4" xfId="81"/>
     <cellStyle name="汇总 4 2" xfId="101"/>
     <cellStyle name="汇总 5" xfId="80"/>
+    <cellStyle name="计算" xfId="25"/>
+    <cellStyle name="计算 2" xfId="88"/>
+    <cellStyle name="计算 2 2" xfId="108"/>
+    <cellStyle name="计算 3" xfId="87"/>
+    <cellStyle name="计算 3 2" xfId="107"/>
+    <cellStyle name="计算 4" xfId="82"/>
+    <cellStyle name="计算 4 2" xfId="102"/>
+    <cellStyle name="计算 5" xfId="91"/>
+    <cellStyle name="检查单元格" xfId="39"/>
+    <cellStyle name="解释性文本" xfId="18"/>
+    <cellStyle name="警告文本" xfId="44"/>
+    <cellStyle name="链接单元格" xfId="36"/>
+    <cellStyle name="千分位 3" xfId="2"/>
+    <cellStyle name="适中" xfId="54"/>
+    <cellStyle name="输出" xfId="56"/>
+    <cellStyle name="输出 2" xfId="85"/>
+    <cellStyle name="输出 2 2" xfId="105"/>
+    <cellStyle name="输出 3" xfId="84"/>
+    <cellStyle name="输出 3 2" xfId="104"/>
+    <cellStyle name="输出 4" xfId="92"/>
+    <cellStyle name="输出 4 2" xfId="109"/>
+    <cellStyle name="输出 5" xfId="93"/>
+    <cellStyle name="输入" xfId="31"/>
+    <cellStyle name="输入 2" xfId="86"/>
+    <cellStyle name="输入 2 2" xfId="106"/>
+    <cellStyle name="输入 3" xfId="83"/>
+    <cellStyle name="输入 3 2" xfId="103"/>
+    <cellStyle name="输入 4" xfId="94"/>
+    <cellStyle name="输入 4 2" xfId="110"/>
+    <cellStyle name="输入 5" xfId="90"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 10" xfId="75"/>
+    <cellStyle name="一般 11" xfId="8"/>
+    <cellStyle name="一般 2" xfId="53"/>
+    <cellStyle name="一般 2 14" xfId="67"/>
+    <cellStyle name="一般 2 2" xfId="63"/>
+    <cellStyle name="一般 2 3" xfId="70"/>
+    <cellStyle name="一般 3" xfId="61"/>
+    <cellStyle name="一般 32" xfId="1"/>
+    <cellStyle name="一般 4" xfId="60"/>
+    <cellStyle name="一般 5" xfId="9"/>
+    <cellStyle name="一般 6" xfId="62"/>
+    <cellStyle name="一般 65" xfId="3"/>
+    <cellStyle name="一般 65 2" xfId="89"/>
+    <cellStyle name="一般 66" xfId="5"/>
+    <cellStyle name="一般 7" xfId="64"/>
+    <cellStyle name="一般 8" xfId="68"/>
+    <cellStyle name="一般 9" xfId="69"/>
+    <cellStyle name="着色 1" xfId="20"/>
+    <cellStyle name="着色 2" xfId="22"/>
+    <cellStyle name="着色 3" xfId="57"/>
+    <cellStyle name="着色 4" xfId="58"/>
+    <cellStyle name="着色 5" xfId="55"/>
+    <cellStyle name="着色 6" xfId="48"/>
     <cellStyle name="注释" xfId="59"/>
     <cellStyle name="注释 2" xfId="95"/>
     <cellStyle name="注释 2 2" xfId="111"/>
@@ -2602,97 +2657,8 @@
     <cellStyle name="注释 4" xfId="97"/>
     <cellStyle name="注释 4 2" xfId="113"/>
     <cellStyle name="注释 5" xfId="98"/>
-    <cellStyle name="着色 1" xfId="20"/>
-    <cellStyle name="着色 2" xfId="22"/>
-    <cellStyle name="着色 3" xfId="57"/>
-    <cellStyle name="着色 4" xfId="58"/>
-    <cellStyle name="着色 5" xfId="55"/>
-    <cellStyle name="着色 6" xfId="48"/>
-    <cellStyle name="解释性文本" xfId="18"/>
-    <cellStyle name="警告文本" xfId="44"/>
-    <cellStyle name="计算" xfId="25"/>
-    <cellStyle name="计算 2" xfId="88"/>
-    <cellStyle name="计算 2 2" xfId="108"/>
-    <cellStyle name="计算 3" xfId="87"/>
-    <cellStyle name="计算 3 2" xfId="107"/>
-    <cellStyle name="计算 4" xfId="82"/>
-    <cellStyle name="计算 4 2" xfId="102"/>
-    <cellStyle name="计算 5" xfId="91"/>
-    <cellStyle name="输入" xfId="31"/>
-    <cellStyle name="输入 2" xfId="86"/>
-    <cellStyle name="输入 2 2" xfId="106"/>
-    <cellStyle name="输入 3" xfId="83"/>
-    <cellStyle name="输入 3 2" xfId="103"/>
-    <cellStyle name="输入 4" xfId="94"/>
-    <cellStyle name="输入 4 2" xfId="110"/>
-    <cellStyle name="输入 5" xfId="90"/>
-    <cellStyle name="输出" xfId="56"/>
-    <cellStyle name="输出 2" xfId="85"/>
-    <cellStyle name="输出 2 2" xfId="105"/>
-    <cellStyle name="输出 3" xfId="84"/>
-    <cellStyle name="输出 3 2" xfId="104"/>
-    <cellStyle name="输出 4" xfId="92"/>
-    <cellStyle name="输出 4 2" xfId="109"/>
-    <cellStyle name="输出 5" xfId="93"/>
-    <cellStyle name="适中" xfId="54"/>
-    <cellStyle name="链接单元格" xfId="36"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -3107,68 +3073,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="19.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.9140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.9140625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="17.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.9140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.8984375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="17.296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" style="4" customWidth="1"/>
     <col min="14" max="14" width="91.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="13" customWidth="1"/>
-    <col min="16" max="34" width="19.25" style="13"/>
-    <col min="35" max="16384" width="19.25" style="5"/>
+    <col min="15" max="15" width="19.19921875" style="13" customWidth="1"/>
+    <col min="16" max="34" width="19.19921875" style="13"/>
+    <col min="35" max="16384" width="19.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="28" customHeight="1">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="28.05" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="M2" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>0</v>
@@ -3179,19 +3145,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>3</v>
@@ -3201,14 +3167,14 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N3" s="8"/>
     </row>
@@ -3217,19 +3183,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>4</v>
@@ -3238,13 +3204,13 @@
         <v>56</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="32"/>
       <c r="M4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -3253,19 +3219,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>5</v>
@@ -3274,13 +3240,13 @@
         <v>54</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="32"/>
       <c r="M5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -3289,34 +3255,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="32"/>
       <c r="M6" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -3325,34 +3291,34 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="32"/>
       <c r="M7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N7" s="8"/>
     </row>
@@ -3361,19 +3327,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>8</v>
@@ -3382,13 +3348,13 @@
         <v>9</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="36"/>
       <c r="M8" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N8" s="8"/>
     </row>
@@ -3397,19 +3363,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>10</v>
@@ -3418,13 +3384,13 @@
         <v>11</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="32"/>
       <c r="M9" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N9" s="8"/>
     </row>
@@ -3433,19 +3399,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>12</v>
@@ -3454,90 +3420,90 @@
         <v>13</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="32"/>
       <c r="M10" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" ht="35">
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="38.4">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="32"/>
       <c r="M11" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" ht="35">
+    <row r="12" spans="1:14" s="6" customFormat="1" ht="38.4">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="52" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="32"/>
       <c r="M12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1">
@@ -3545,19 +3511,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>16</v>
@@ -3566,13 +3532,13 @@
         <v>17</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="33"/>
       <c r="M13" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N13" s="8"/>
     </row>
@@ -3581,34 +3547,34 @@
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14" s="34"/>
     </row>
@@ -3617,34 +3583,34 @@
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="33"/>
       <c r="M15" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N15" s="8"/>
     </row>
@@ -3653,19 +3619,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>19</v>
@@ -3674,13 +3640,13 @@
         <v>20</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="33"/>
       <c r="M16" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N16" s="8"/>
     </row>
@@ -3689,19 +3655,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="44" t="s">
         <v>23</v>
@@ -3710,13 +3676,13 @@
         <v>24</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" s="8"/>
     </row>
@@ -3725,19 +3691,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>25</v>
@@ -3746,13 +3712,13 @@
         <v>26</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="33"/>
       <c r="M18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N18" s="8"/>
     </row>
@@ -3761,19 +3727,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E19" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>21</v>
@@ -3782,13 +3748,13 @@
         <v>22</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="33"/>
       <c r="M19" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N19" s="8"/>
     </row>
@@ -3797,34 +3763,34 @@
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="33"/>
       <c r="M20" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N20" s="8"/>
     </row>
@@ -3833,19 +3799,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>27</v>
@@ -3854,13 +3820,13 @@
         <v>57</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="33"/>
       <c r="M21" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N21" s="8"/>
     </row>
@@ -3869,55 +3835,55 @@
         <v>2</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="33"/>
       <c r="M22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:34" s="6" customFormat="1" ht="35">
+    <row r="23" spans="1:34" s="6" customFormat="1" ht="38.4">
       <c r="A23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>29</v>
@@ -3926,36 +3892,36 @@
         <v>30</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="33"/>
       <c r="M23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="6" customFormat="1" ht="35">
+    <row r="24" spans="1:34" s="6" customFormat="1" ht="38.4">
       <c r="A24" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>31</v>
@@ -3964,54 +3930,54 @@
         <v>32</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="33"/>
       <c r="M24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="6" customFormat="1" ht="35">
+    <row r="25" spans="1:34" s="6" customFormat="1" ht="38.4">
       <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="33"/>
       <c r="M25" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:34" s="6" customFormat="1">
@@ -4019,19 +3985,19 @@
         <v>2</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>34</v>
@@ -4040,13 +4006,13 @@
         <v>35</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="32"/>
       <c r="M26" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N26" s="8"/>
     </row>
@@ -4055,73 +4021,73 @@
         <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="32"/>
       <c r="M27" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:34" s="6" customFormat="1" ht="35">
+    <row r="28" spans="1:34" s="6" customFormat="1" ht="38.4">
       <c r="A28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="37"/>
       <c r="M28" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -4129,19 +4095,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="48" t="s">
         <v>37</v>
@@ -4150,13 +4116,13 @@
         <v>38</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="37"/>
       <c r="M29" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="5"/>
@@ -4185,19 +4151,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="49" t="s">
         <v>39</v>
@@ -4206,13 +4172,13 @@
         <v>40</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="37"/>
       <c r="M30" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N30" s="8"/>
     </row>
@@ -4221,34 +4187,34 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="37"/>
       <c r="M31" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="8"/>
     </row>
@@ -4257,19 +4223,19 @@
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>42</v>
@@ -4278,13 +4244,13 @@
         <v>43</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="37"/>
       <c r="M32" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N32" s="8"/>
     </row>
@@ -4293,19 +4259,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="50" t="s">
         <v>44</v>
@@ -4314,13 +4280,13 @@
         <v>45</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="37"/>
       <c r="M33" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N33" s="8"/>
     </row>
@@ -4329,34 +4295,34 @@
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E34" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>46</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="37"/>
       <c r="M34" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N34" s="8"/>
     </row>
@@ -4365,19 +4331,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" s="50" t="s">
         <v>47</v>
@@ -4386,13 +4352,13 @@
         <v>48</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="37"/>
       <c r="M35" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N35" s="8"/>
     </row>
@@ -4401,19 +4367,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>49</v>
@@ -4422,13 +4388,13 @@
         <v>50</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="37"/>
       <c r="M36" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N36" s="8"/>
     </row>
@@ -4437,19 +4403,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E37" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="50" t="s">
         <v>51</v>
@@ -4458,119 +4424,120 @@
         <v>52</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="37"/>
       <c r="M37" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="52.5">
+    <row r="38" spans="1:14" ht="57.6">
       <c r="A38" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>53</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="37"/>
       <c r="M38" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AH38"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="I4:I38">
-    <cfRule type="cellIs" dxfId="20" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="91" operator="equal">
       <formula>"Qd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I38">
-    <cfRule type="cellIs" dxfId="19" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="90" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I38">
-    <cfRule type="cellIs" dxfId="18" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="89" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I38">
-    <cfRule type="cellIs" dxfId="17" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="88" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I38">
-    <cfRule type="cellIs" dxfId="16" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="87" operator="equal">
       <formula>"Drpd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I38">
-    <cfRule type="cellIs" dxfId="15" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="83" operator="equal">
       <formula>"Qd_C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="84" operator="equal">
       <formula>"Qd_L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
       <formula>"Qd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>"DISQ"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>"Drpd"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>"Qd_C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"Qd_L"</formula>
     </cfRule>
   </conditionalFormatting>
